--- a/ACP-ACF-ACM/AFC.xlsx
+++ b/ACP-ACF-ACM/AFC.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakho\Desktop\Master\Proba_Stat_AI\AFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmd tech\Documents\Documents\ACP-ACF-ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A6AF2-D2B1-432E-8934-D5058B5BFD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D8590-9303-4C22-91A9-626D5ABF1511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="TDC" sheetId="2" r:id="rId2"/>
+    <sheet name="Tableau Disjonctif Complet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -449,7 +449,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -461,12 +461,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>

--- a/ACP-ACF-ACM/AFC.xlsx
+++ b/ACP-ACF-ACM/AFC.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmd tech\Documents\Documents\ACP-ACF-ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D8590-9303-4C22-91A9-626D5ABF1511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E0B76-9CDB-4033-81A5-E6801A950A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tableau Disjonctif Complet" sheetId="2" r:id="rId2"/>
+    <sheet name="Tab0_img" sheetId="1" r:id="rId1"/>
+    <sheet name="Tab0" sheetId="4" r:id="rId2"/>
+    <sheet name="TDC" sheetId="2" r:id="rId3"/>
+    <sheet name="Tab1" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tab1'!$B$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Produit</t>
   </si>
@@ -77,14 +82,85 @@
   </si>
   <si>
     <t>carre</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>Reponse 1</t>
+  </si>
+  <si>
+    <t>Reponse 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>Couleur</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Forme</t>
+  </si>
+  <si>
+    <t>Rond</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Carré</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Très lourd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,8 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,16 +218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175192</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535577</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>131626</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -167,8 +250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5760720" cy="2167255"/>
+          <a:off x="821951" y="247268"/>
+          <a:ext cx="5695942" cy="2141686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -457,11 +540,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEBD3B1-6564-47F9-B79B-E8B8D887464A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4045ED68-3525-4204-8F92-196A03BB5FE7}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -569,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -615,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -661,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -684,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -707,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -722,4 +974,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F87F80-99DB-4EF3-905E-C6EAD8ED74DA}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>